--- a/GithubTest/doc/TestDoc.xlsx
+++ b/GithubTest/doc/TestDoc.xlsx
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -372,6 +372,16 @@
         <v>20</v>
       </c>
     </row>
+    <row r="4" spans="2:2">
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GithubTest/doc/TestDoc.xlsx
+++ b/GithubTest/doc/TestDoc.xlsx
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B2:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -380,6 +380,21 @@
     <row r="5" spans="2:2">
       <c r="B5">
         <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/GithubTest/doc/TestDoc.xlsx
+++ b/GithubTest/doc/TestDoc.xlsx
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B8"/>
+  <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -395,6 +395,21 @@
     <row r="8" spans="2:2">
       <c r="B8">
         <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
